--- a/classements_xls633be4e053e80.xlsx
+++ b/classements_xls633be4e053e80.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>P11/P10/P11</t>
+          <t>P11/P10/P10</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>D9/D9/D9</t>
+          <t>D9/D8/D9</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>D7/D7/D7</t>
+          <t>D7/D7/R6</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>P10/P11/P11</t>
+          <t>P10/P10/P11</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>P11/P10/D9</t>
+          <t>P10/P10/D9</t>
         </is>
       </c>
     </row>

--- a/classements_xls633be4e053e80.xlsx
+++ b/classements_xls633be4e053e80.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>Classement</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -531,6 +546,21 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -576,6 +606,21 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -627,6 +672,21 @@
           <t>P11/P10/P10</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -674,6 +734,21 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -721,6 +796,21 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -768,6 +858,21 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -819,6 +924,21 @@
           <t>P11/D9/P10</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -868,6 +988,21 @@
           <t>-/-/-</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -919,6 +1054,21 @@
           <t>P12/P12/P11</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -966,6 +1116,21 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1013,6 +1178,21 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1058,6 +1238,21 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1109,6 +1304,21 @@
           <t>P12/P12/P12</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1158,6 +1368,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1203,6 +1428,21 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1252,6 +1492,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1301,6 +1556,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1350,6 +1620,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1399,6 +1684,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1446,6 +1746,21 @@
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1491,6 +1806,21 @@
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1536,6 +1866,21 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1581,6 +1926,21 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1626,6 +1986,21 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1677,6 +2052,21 @@
           <t>D9/D9/P10</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1726,6 +2116,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1777,6 +2182,21 @@
           <t>P12/P12/P12</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1828,6 +2248,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1879,6 +2314,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1930,6 +2380,21 @@
           <t>P11/P10/P10</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1981,6 +2446,21 @@
           <t>P12/P12/P12</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2032,6 +2512,21 @@
           <t>P11/P10/P11</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2081,6 +2576,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2132,6 +2642,21 @@
           <t>D9/D8/D9</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2177,6 +2702,21 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2224,6 +2764,21 @@
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2269,6 +2824,21 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2314,6 +2884,21 @@
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2359,6 +2944,21 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2410,6 +3010,21 @@
           <t>P11/P10/P11</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2461,6 +3076,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2512,6 +3142,21 @@
           <t>P12/P12/P12</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2559,6 +3204,21 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2610,6 +3270,21 @@
           <t>D9/D9/D9</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2661,6 +3336,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2708,6 +3398,21 @@
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2755,6 +3460,21 @@
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2806,6 +3526,21 @@
           <t>D9/D9/D9</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2855,6 +3590,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2906,6 +3656,21 @@
           <t>D8/D8/D9</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2953,6 +3718,21 @@
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3004,6 +3784,21 @@
           <t>D9/D7/D7</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3053,6 +3848,21 @@
           <t>D9/P11/P11</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3104,6 +3914,21 @@
           <t>P10/D9/D9</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3153,6 +3978,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3198,6 +4038,21 @@
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3247,6 +4102,21 @@
           <t>-/-/-</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3298,6 +4168,21 @@
           <t>P11/P11/P10</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3349,6 +4234,21 @@
           <t>D7/R6/R6</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3400,6 +4300,21 @@
           <t>P11/P10/P10</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3449,6 +4364,21 @@
           <t>-/-/-</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3500,6 +4430,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3551,6 +4496,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3598,6 +4558,21 @@
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3645,6 +4620,21 @@
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3690,6 +4680,21 @@
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3741,6 +4746,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3790,6 +4810,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3835,6 +4870,21 @@
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3886,6 +4936,21 @@
           <t>D7/D7/R6</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3937,6 +5002,21 @@
           <t>D9/P11/P10</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3982,6 +5062,21 @@
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4033,6 +5128,21 @@
           <t>P10/P11/P11</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4082,6 +5192,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4133,6 +5258,21 @@
           <t>P10/P10/P11</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4184,6 +5324,21 @@
           <t>D9/D9/D9</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4229,6 +5384,21 @@
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4274,6 +5444,21 @@
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4323,6 +5508,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4372,6 +5572,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4417,6 +5632,21 @@
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4464,6 +5694,21 @@
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4515,6 +5760,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4564,6 +5824,21 @@
           <t>D9/P10/P10</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4611,6 +5886,21 @@
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4656,6 +5946,21 @@
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4701,6 +6006,21 @@
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4752,6 +6072,21 @@
           <t>P11/D9/D9</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4797,6 +6132,21 @@
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4846,6 +6196,21 @@
           <t>-/-/-</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4897,6 +6262,21 @@
           <t>P11/D9/P10</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4944,6 +6324,21 @@
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4989,6 +6384,21 @@
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5040,6 +6450,21 @@
           <t>P10/P10/D9</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5091,6 +6516,21 @@
           <t>D9/D9/D9</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5142,6 +6582,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5191,6 +6646,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5242,6 +6712,21 @@
           <t>P10/D9/D8</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5293,6 +6778,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5344,6 +6844,21 @@
           <t>P10/D9/D9</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5395,6 +6910,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5446,6 +6976,21 @@
           <t>P10/D9/D9</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5493,6 +7038,21 @@
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5542,6 +7102,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5591,6 +7166,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5638,6 +7228,21 @@
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5689,6 +7294,21 @@
           <t>P11/P11/P11</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5734,6 +7354,21 @@
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5783,6 +7418,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5832,6 +7482,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5883,6 +7548,21 @@
           <t>P10/D8/P10</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5932,6 +7612,21 @@
           <t>P11/D9/D9</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5983,6 +7678,21 @@
           <t>P10/D8/D8</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6032,6 +7742,21 @@
           <t>D9/P11/P10</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6077,6 +7802,21 @@
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6124,6 +7864,21 @@
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6169,6 +7924,21 @@
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6214,6 +7984,21 @@
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6261,6 +8046,21 @@
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6306,6 +8106,21 @@
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6353,6 +8168,21 @@
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6398,6 +8228,21 @@
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6445,6 +8290,21 @@
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6496,6 +8356,21 @@
           <t>P11/P10/P11</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6547,6 +8422,21 @@
           <t>P11/P10/P11</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6598,6 +8488,21 @@
           <t>P10/D8/D9</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6649,6 +8554,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6698,6 +8618,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6745,6 +8680,21 @@
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6794,6 +8744,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6839,6 +8804,21 @@
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6886,6 +8866,21 @@
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6931,6 +8926,21 @@
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6976,6 +8986,21 @@
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7027,6 +9052,21 @@
           <t>P11/D9/P10</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7072,6 +9112,21 @@
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7121,6 +9176,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7172,6 +9242,21 @@
           <t>P11/P10/D9</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7223,6 +9308,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7268,6 +9368,21 @@
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7319,6 +9434,21 @@
           <t>D9/D9/D9</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7366,6 +9496,21 @@
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7417,6 +9562,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7468,6 +9628,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7515,6 +9690,21 @@
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7566,6 +9756,21 @@
           <t>P10/P10/P10</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7617,6 +9822,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7668,6 +9888,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7719,6 +9954,21 @@
           <t>P10/P11/P11</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7770,6 +10020,21 @@
           <t>R6/D7/R6</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7821,6 +10086,21 @@
           <t>P12/P12/P12</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>P12</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7872,6 +10152,21 @@
           <t>P11/D9/D9</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7923,6 +10218,21 @@
           <t>NC/NC/NC</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7970,6 +10280,21 @@
       <c r="K155" t="inlineStr">
         <is>
           <t>NC/NC/NC</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>NC</t>
         </is>
       </c>
     </row>
